--- a/outputs/ROME1.xlsx
+++ b/outputs/ROME1.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style, 3. Attitude Towards Risk, 4. Computer Self-Efficacy
-Why: The page shown is a repository view, which primarily lists files and directories in the project. There is no immediate or explicit indication that this page contains information about how to file an issue. Given that Abi prefers using familiar methods and is risk-averse to unfamiliar technologies, they may not think that looking at the repository page is a step towards finding information about filing an issue. Additionally, Abi's comprehensive information processing style means they would look for more direct and clear instructions, which are not evident on this page.</t>
+Facets: Motivations, Information Processing Style
+Why: The page shown is a repository view with various files and some information about the project. There is no clear indication or direct information about how to file an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would not consider this page as a step toward finding information about filing an issue. She would likely look for a more specific section or guide related to filing issues.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The README file is a conventional place to find introductory and instructional information about a project. Given Abi's comprehensive information processing style and preference for process-oriented learning, it is likely that they will consider reading the README file as a sensible next step. This aligns with their need to gather comprehensive information before taking further actions. The page clearly displays the README.md file, making it accessible for Abi to read and likely to contain relevant information on filing an issue.</t>
+Facets: Information Processing Style, Learning Style
+Why: The README file is a common place to find introductory and instructional information about a project. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would likely consider reading the README as a logical step to gather information about how to file an issue. The page provides a clear link to the README.md file, making it accessible for Abi to read and find the necessary information.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although Abi might read the README.md file, the provided image shows that the README content is predominantly about the project, its technologies, and contributors, rather than providing specific instructions on how to file an issue. Abi will likely not find direct information about filing an issue here. Given Abi's comprehensive information processing style, they would need clear and explicit instructions to feel confident that they are making progress toward their goal. The lack of relevant information in the README will make Abi uncertain if they are on the right track, potentially impacting their motivation and confidence.</t>
+Facets: Information Processing Style, Computer Self-Efficacy
+Why: After reading the README, Abi will not find specific information about how to file an issue. The README provides general information about the project, technologies used, and contact points but does not include detailed instructions on filing an issue. Given Abi's comprehensive information processing style, she would need clear and specific instructions to feel confident that she is making progress toward her goal. The lack of this information would likely leave her uncertain about the next steps, affecting her confidence in completing the task.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style, 5. Learning Style
-Why: The "Contribute.md" file is explicitly mentioned on the page as a place to start for those wanting to contribute, which aligns with Abi's goal of filing an issue. Given Abi’s comprehensive information processing style, they are likely to recognize that this file could contain relevant instructions on how to contribute, including filing issues. The page clearly directs users who want to contribute to read the "Contribute.md" file, making it an appropriate and logical next step for Abi to take.</t>
+Facets: Information Processing Style, Learning Style
+Why: The page explicitly mentions the "Contribute.md" file under the "Want to help?" section, indicating that it contains information for new contributors. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would recognize that clicking on the "Contribute.md" file is a logical next step to find detailed instructions on how to contribute, which likely includes filing an issue. The page provides a clear and direct link to this file, making it accessible for Abi to take this action.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Contribute.md" file clearly outlines the steps for contributing to the project, including a section specifically titled "File an issue," which directly addresses Abi's goal. This section provides explicit instructions on how to report issues, and it is prominently placed at the beginning of the document. Given Abi's comprehensive information processing style and preference for detailed, step-by-step instructions, this document will help Abi feel confident that they are making progress toward their goal and provide them with the necessary information to file an issue.</t>
+Facets: Information Processing Style, Learning Style
+Why: The "Contribute.md" file provides a clear section titled "File an issue" with specific instructions on how to file an issue, including creating a "New Issue" in the GitLab page and providing as much detail as possible. This aligns with Abi's comprehensive information processing style and preference for process-oriented learning. Abi will know she is making progress toward her goal and will have the necessary information to file an issue.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Contribute.md" file contains a clear section titled "File an issue" with detailed instructions on how to file an issue. This directly aligns with Abi's goal of filing an issue. Given Abi's comprehensive information processing style and motivation to accomplish their task, they will recognize that following these instructions is a necessary step toward achieving their overall goal of filing an issue to have a merge request template. The instructions are explicit and provide the needed information, making it clear that they are on the right track.</t>
+Facets: Motivations, Information Processing Style
+Why: The "Contribute.md" file includes a clear section titled "File an issue" with specific instructions on how to file an issue. This aligns with Abi's motivation to accomplish her task and her comprehensive information processing style. She will recognize that filing the issue is a necessary step toward achieving her overall goal of having a merge request template. The detailed instructions provided will help her understand that she is on the right path.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Contribute.md" file explicitly directs the user to "File an issue" by creating a new issue in the GitLab project. The instructions are clear and straightforward, which aligns well with Abi's comprehensive information processing style. The specific phrase "create a 'New Issue'" provides a clear action for Abi to take, reducing uncertainty and building confidence. Given the clarity of the instructions, Abi will know to go to the list of issues as a necessary step toward filing the issue, making the page good enough for Abi to take this action.</t>
+Facets: Information Processing Style, Learning Style
+Why: The "Contribute.md" file provides clear instructions under the "File an issue" section, which includes a link to the GitLab page where issues can be filed. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that going to the list of issues is the next logical step. The instructions are straightforward and provide a clear path for her to follow, making the page good enough for Abi to take this action confidently.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Upon landing on the list of issues, Abi will see a familiar issue-tracking interface, which clearly shows existing issues and provides a "New issue" button prominently. This aligns with the instructions provided in the "Contribute.md" file, confirming to Abi that they are in the right place to file a new issue. Given Abi's comprehensive information processing style, they will recognize that they have made progress toward their goal and have reached the correct location to proceed with filing the issue. The clear interface and the presence of the "New issue" button will provide Abi with the confidence and information needed to continue.</t>
+Facets: Information Processing Style, Learning Style
+Why: Upon landing on the list of issues page, Abi will see a clear and organized list of existing issues along with a prominent "New issue" button. This aligns with the instructions provided in the "Contribute.md" file, confirming that she is on the right path. The page layout and the presence of the "New issue" button will make it evident to Abi that she can proceed to file a new issue, thus making progress toward her goal. The information is presented in a straightforward manner, which will help Abi feel confident that she is doing the right thing.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "New issue" button is prominently displayed in green on the issue list page, making it immediately noticeable and recognizable as the next step for filing a new issue. Given Abi's comprehensive information processing style, the clear labeling and placement of the button provide confidence that this is the correct action to take. The straightforwardness of this step ensures that Abi will know what to do and feel assured that they are making progress toward their goal of filing the issue.</t>
+Facets: Information Processing Style, Learning Style
+Why: The "New issue" button is prominently displayed on the issues list page, making it clear and easy for Abi to identify the next step. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that clicking the "New issue" button is the appropriate action to take in order to file an issue. The page layout and the clear labeling of the button provide sufficient guidance for Abi to proceed confidently.</t>
         </is>
       </c>
     </row>
@@ -506,8 +506,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking "New issue," Abi lands on a clearly labeled "New Issue" page with fields for title and description, and a prominent "Create issue" button. This straightforward layout will confirm to Abi that they are on the correct page to file an issue. The clear instructions and intuitive interface align with Abi's comprehensive information processing style, ensuring they understand that they did the right thing and are making progress towards their goal. The page provides all necessary fields, making it easy for Abi to proceed with filing the issue.</t>
+Facets: Information Processing Style, Learning Style
+Why: After clicking "New issue," Abi will land on a straightforward form for creating a new issue. The form includes fields for the title, type, and description, which are standard elements for filing an issue. This aligns with the instructions provided in the "Contribute.md" file, confirming that she is making progress toward her goal. The clear layout and labeling of the form fields will help Abi understand that she is on the right path and provide her with the necessary information to complete the task.</t>
         </is>
       </c>
     </row>
@@ -515,8 +515,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "New Issue" page is clearly laid out with labeled fields and a prominent "Create issue" button, making it straightforward for Abi to understand what to do at this step. The form requires a title and description, both of which are standard for filing an issue. Given Abi's comprehensive information processing style, the clear labels and straightforward instructions provide the necessary information to proceed with confidence. The simplicity and clarity of the interface ensure that Abi will know they are taking the correct action to file the issue.</t>
+Facets: Information Processing Style, Learning Style
+Why: The form for creating a new issue is straightforward and clearly labeled, with fields for the title, type, and description. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that she needs to fill out these fields to file the issue. The "Create issue" button is prominently displayed, making it clear what action to take once the form is filled out. The page provides all the necessary information and guidance for Abi to complete this step confidently.</t>
         </is>
       </c>
     </row>
@@ -524,8 +524,8 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After submitting the issue, Abi is directed to a page that clearly shows the newly created issue with a status of "Open" and a confirmation message that the issue was created. This provides immediate feedback that the action was successful, which is reassuring for Abi. The page also offers options to further interact with the issue, such as adding comments or closing the issue, which aligns with Abi's comprehensive information processing style, ensuring they have all the necessary information and controls to manage the issue. This clear confirmation of progress will help Abi know that they did the right thing and are making progress toward their goal.</t>
+Facets: Information Processing Style, Learning Style
+Why: After submitting the issue, Abi will land on a page that confirms the issue has been created, with a clear status indicator ("Open") and the details she entered. This immediate feedback will help Abi understand that she has successfully filed the issue and is making progress toward her goal. The page layout is clear and provides all the necessary information, including options to edit, comment, or close the issue, which aligns with Abi's comprehensive information processing style and preference for process-oriented learning. This will reassure her that she did the right thing and has all the information she needs.</t>
         </is>
       </c>
     </row>

--- a/outputs/ROME1.xlsx
+++ b/outputs/ROME1.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Motivations, Information Processing Style
-Why: The page shown is a repository view with various files and some information about the project. There is no clear indication or direct information about how to file an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would not consider this page as a step toward finding information about filing an issue. She would likely look for a more specific section or guide related to filing issues.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page shown is a repository view with files and some general information about the project. There is no clear indication or direct information about how to file an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The README file is a common place to find introductory and instructional information about a project. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would likely consider reading the README as a logical step to gather information about how to file an issue. The page provides a clear link to the README.md file, making it accessible for Abi to read and find the necessary information.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The README file is a common place to find introductory and instructional information about a project. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would likely consider reading the README as a logical step to gather information about how to file an issue. The page provides a clear link to the README file, making it accessible for Abi to take this action.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Information Processing Style, Computer Self-Efficacy
-Why: After reading the README, Abi will not find specific information about how to file an issue. The README provides general information about the project, technologies used, and contact points but does not include detailed instructions on filing an issue. Given Abi's comprehensive information processing style, she would need clear and specific instructions to feel confident that she is making progress toward her goal. The lack of this information would likely leave her uncertain about the next steps, affecting her confidence in completing the task.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After reading the README, Abi will not necessarily know that she is making progress toward her goal of finding information about how to file an issue. The README file shown in the image does not provide specific instructions on how to file an issue. It contains general information about the project, technologies used, and contact points, but it lacks clear, actionable steps for filing an issue. Given Abi's comprehensive information processing style, she would need more specific guidance to feel confident that she is on the right track. Additionally, her low computer self-efficacy might make her uncertain about whether she is making progress without explicit instructions.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The page explicitly mentions the "Contribute.md" file under the "Want to help?" section, indicating that it contains information for new contributors. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would recognize that clicking on the "Contribute.md" file is a logical next step to find detailed instructions on how to contribute, which likely includes filing an issue. The page provides a clear and direct link to this file, making it accessible for Abi to take this action.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The page explicitly mentions the "Contribute.md" file under the "Want to help?" section, which suggests it contains information for new contributors. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would likely recognize that clicking on the "Contribute.md" file is a logical next step to find detailed instructions on how to file an issue. The page provides a clear indication that this file is relevant to her goal.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The "Contribute.md" file provides a clear section titled "File an issue" with specific instructions on how to file an issue, including creating a "New Issue" in the GitLab page and providing as much detail as possible. This aligns with Abi's comprehensive information processing style and preference for process-oriented learning. Abi will know she is making progress toward her goal and will have the necessary information to file an issue.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The "Contribute.md" file provides clear and detailed instructions on how to file an issue, including a specific section titled "File an issue." This section directly addresses Abi's goal and provides the necessary steps to report issues or request features. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she is making progress toward her goal and has found the information she needs. The instructions are explicit and easy to follow, which aligns well with Abi's learning style.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The "Contribute.md" file includes a clear section titled "File an issue" with specific instructions on how to file an issue. This aligns with Abi's motivation to accomplish her task and her comprehensive information processing style. She will recognize that filing the issue is a necessary step toward achieving her overall goal of having a merge request template. The detailed instructions provided will help her understand that she is on the right path.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Contribute.md" file contains a specific section titled "File an issue," which directly addresses the subgoal of filing an issue. This section provides clear instructions on how to create a new issue in the GitLab project, making it evident that this is a step toward achieving the overall use case. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would recognize that following these instructions is a necessary step toward filing the issue for a merge request template.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The "Contribute.md" file provides clear instructions under the "File an issue" section, which includes a link to the GitLab page where issues can be filed. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that going to the list of issues is the next logical step. The instructions are straightforward and provide a clear path for her to follow, making the page good enough for Abi to take this action confidently.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The "Contribute.md" file provides clear instructions on how to file an issue, including a link to the list of issues. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that going to the list of issues is the next logical step in the process. The instructions are explicit and provide a clear path forward, making it easy for Abi to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: Upon landing on the list of issues page, Abi will see a clear and organized list of existing issues along with a prominent "New issue" button. This aligns with the instructions provided in the "Contribute.md" file, confirming that she is on the right path. The page layout and the presence of the "New issue" button will make it evident to Abi that she can proceed to file a new issue, thus making progress toward her goal. The information is presented in a straightforward manner, which will help Abi feel confident that she is doing the right thing.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: Upon landing on the list of issues page, Abi will see a clear and organized list of existing issues, along with a prominent "New issue" button. This aligns with the instructions provided in the "Contribute.md" file, confirming that she is on the right track. The page layout is straightforward and provides a clear next step for filing a new issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she is making progress toward her goal and has the necessary information to proceed.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The "New issue" button is prominently displayed on the issues list page, making it clear and easy for Abi to identify the next step. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that clicking the "New issue" button is the appropriate action to take in order to file an issue. The page layout and the clear labeling of the button provide sufficient guidance for Abi to proceed confidently.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The "New issue" button is prominently displayed in green on the issues list page, making it easy to identify. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that clicking this button is the next logical step to file an issue. The page layout is clear and intuitive, providing a straightforward path for Abi to follow.</t>
         </is>
       </c>
     </row>
@@ -506,8 +506,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: After clicking "New issue," Abi will land on a straightforward form for creating a new issue. The form includes fields for the title, type, and description, which are standard elements for filing an issue. This aligns with the instructions provided in the "Contribute.md" file, confirming that she is making progress toward her goal. The clear layout and labeling of the form fields will help Abi understand that she is on the right path and provide her with the necessary information to complete the task.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: After clicking "New issue," Abi lands on a straightforward form for creating a new issue. The form includes fields for the title, type, and description, which are standard elements for filing an issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she is on the correct page to file the issue. The layout is clear and intuitive, providing all the necessary fields to complete the task, confirming that she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -515,8 +515,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The form for creating a new issue is straightforward and clearly labeled, with fields for the title, type, and description. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that she needs to fill out these fields to file the issue. The "Create issue" button is prominently displayed, making it clear what action to take once the form is filled out. The page provides all the necessary information and guidance for Abi to complete this step confidently.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The form for creating a new issue is straightforward and includes clearly labeled fields for the title, type, and description. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that she needs to fill out these fields to file the issue. The page layout is intuitive, and the "Create issue" button is prominently displayed, making it clear what action to take next. This setup provides all the necessary information for Abi to complete the task confidently.</t>
         </is>
       </c>
     </row>
@@ -524,8 +524,8 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: After submitting the issue, Abi will land on a page that confirms the issue has been created, with a clear status indicator ("Open") and the details she entered. This immediate feedback will help Abi understand that she has successfully filed the issue and is making progress toward her goal. The page layout is clear and provides all the necessary information, including options to edit, comment, or close the issue, which aligns with Abi's comprehensive information processing style and preference for process-oriented learning. This will reassure her that she did the right thing and has all the information she needs.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: After submitting the issue, Abi lands on a page that confirms the issue has been created, with a clear status indicator ("Open") and the details she entered. This immediate feedback confirms that she has successfully filed the issue, providing a sense of progress toward her goal. The page layout is clear and includes all relevant information about the issue, aligning with Abi's comprehensive information processing style and preference for process-oriented learning. This setup ensures that Abi knows she did the right thing and has all the information she needs.</t>
         </is>
       </c>
     </row>

--- a/outputs/ROME1.xlsx
+++ b/outputs/ROME1.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository view with files and some general information about the project. There is no clear indication or direct information about how to file an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
+Why: The page shown is a repository page with a list of files and some information about the project. There is no clear indication or direct link to information about how to file an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, due to her low computer self-efficacy, she might feel uncertain about where to look next without explicit guidance.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The README file is a common place to find introductory and instructional information about a project. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would likely consider reading the README as a logical step to gather information about how to file an issue. The page provides a clear link to the README file, making it accessible for Abi to take this action.</t>
+Why: The README.md file is a common place to find important information about a project, including how to contribute or file issues. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would likely consider reading the README.md file as a logical next step to gather more information. The page clearly lists the README.md file, making it accessible for Abi to click and read.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After reading the README, Abi will not necessarily know that she is making progress toward her goal of finding information about how to file an issue. The README file shown in the image does not provide specific instructions on how to file an issue. It contains general information about the project, technologies used, and contact points, but it lacks clear, actionable steps for filing an issue. Given Abi's comprehensive information processing style, she would need more specific guidance to feel confident that she is on the right track. Additionally, her low computer self-efficacy might make her uncertain about whether she is making progress without explicit instructions.</t>
+Why: After reading the README.md file, Abi would not find specific information about how to file an issue. The README.md file shown in the image provides general information about the project, technologies used, and contact points but does not include detailed instructions on filing an issue. Given Abi's comprehensive information processing style, she would need clear and specific instructions to feel confident that she is making progress toward her goal. Additionally, due to her low computer self-efficacy, the lack of explicit guidance would likely leave her uncertain about the next steps.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page explicitly mentions the "Contribute.md" file under the "Want to help?" section, which suggests it contains information for new contributors. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would likely recognize that clicking on the "Contribute.md" file is a logical next step to find detailed instructions on how to file an issue. The page provides a clear indication that this file is relevant to her goal.</t>
+Why: The page explicitly mentions the "Contribute.md" file under the "Want to help?" section, indicating that it contains information for new contributors. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would recognize that clicking on the "Contribute.md" file is a logical next step to find detailed instructions on how to contribute, which likely includes filing an issue. The page provides clear guidance, making it suitable for Abi to take this action.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Contribute.md" file provides clear and detailed instructions on how to file an issue, including a specific section titled "File an issue." This section directly addresses Abi's goal and provides the necessary steps to report issues or request features. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she is making progress toward her goal and has found the information she needs. The instructions are explicit and easy to follow, which aligns well with Abi's learning style.</t>
+Why: The "Contribute.md" file provides clear and detailed instructions on how to file an issue, including a specific section titled "File an issue." This section outlines the steps to create a new issue on GitLab, which directly addresses Abi's subgoal. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she is making progress toward her goal and has found the necessary information to file an issue. The detailed and structured format of the instructions aligns well with her learning style, ensuring she feels confident in her actions.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Contribute.md" file contains a specific section titled "File an issue," which directly addresses the subgoal of filing an issue. This section provides clear instructions on how to create a new issue in the GitLab project, making it evident that this is a step toward achieving the overall use case. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would recognize that following these instructions is a necessary step toward filing the issue for a merge request template.</t>
+Why: The "Contribute.md" file explicitly includes a section titled "File an issue," which provides clear instructions on how to file an issue. Given Abi's motivation to accomplish her tasks and her comprehensive information processing style, she would recognize that filing the issue is a necessary step toward achieving her overall goal of having a merge request template. The detailed instructions in the "Contribute.md" file would help her understand that she is on the right path and making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Contribute.md" file provides clear instructions on how to file an issue, including a link to the list of issues. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that going to the list of issues is the next logical step in the process. The instructions are explicit and provide a clear path forward, making it easy for Abi to know what to do at this step.</t>
+Why: The "Contribute.md" file provides clear instructions on filing an issue, including a link to the list of issues. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would understand that going to the list of issues is the next logical step in the process. The instructions are explicit and straightforward, making it clear what she needs to do next, which aligns well with her learning style.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: Upon landing on the list of issues page, Abi will see a clear and organized list of existing issues, along with a prominent "New issue" button. This aligns with the instructions provided in the "Contribute.md" file, confirming that she is on the right track. The page layout is straightforward and provides a clear next step for filing a new issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she is making progress toward her goal and has the necessary information to proceed.</t>
+Why: Upon reaching the list of issues, Abi will see a clear and organized list of existing issues, along with a prominent "New issue" button. This aligns with the instructions provided in the "Contribute.md" file, confirming that she is on the right path. The page is straightforward and provides a clear next step, which is to click the "New issue" button to file her issue. This clear progression and alignment with the instructions will help Abi feel confident that she is making progress toward her goal and has the information she needs to proceed.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "New issue" button is prominently displayed in green on the issues list page, making it easy to identify. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that clicking this button is the next logical step to file an issue. The page layout is clear and intuitive, providing a straightforward path for Abi to follow.</t>
+Why: The "New issue" button is prominently displayed at the top right of the issues list page, making it easy to find. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that clicking this button is the next logical step in filing an issue. The clear labeling and placement of the button provide sufficient guidance for her to take this action confidently.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking "New issue," Abi lands on a straightforward form for creating a new issue. The form includes fields for the title, type, and description, which are standard elements for filing an issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she is on the correct page to file the issue. The layout is clear and intuitive, providing all the necessary fields to complete the task, confirming that she is making progress toward her goal.</t>
+Why: After clicking "New issue," Abi is taken to a straightforward form for creating a new issue. The form includes fields for the title, type, and description, which are standard elements for filing an issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she is on the right path and making progress toward her goal. The form is clear and provides all the necessary fields for her to input the required information to file the issue.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The form for creating a new issue is straightforward and includes clearly labeled fields for the title, type, and description. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that she needs to fill out these fields to file the issue. The page layout is intuitive, and the "Create issue" button is prominently displayed, making it clear what action to take next. This setup provides all the necessary information for Abi to complete the task confidently.</t>
+Why: The form for creating a new issue is straightforward and clearly labeled, with fields for the title, type, and description. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that she needs to fill out these fields to file the issue. The "Create issue" button is prominently displayed, making it clear what she needs to do to submit the issue. The page provides all the necessary information and guidance for her to complete this action confidently.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: After submitting the issue, Abi lands on a page that confirms the issue has been created, with a clear status indicator ("Open") and the details she entered. This immediate feedback confirms that she has successfully filed the issue, providing a sense of progress toward her goal. The page layout is clear and includes all relevant information about the issue, aligning with Abi's comprehensive information processing style and preference for process-oriented learning. This setup ensures that Abi knows she did the right thing and has all the information she needs.</t>
+Why: After submitting the issue, Abi is taken to a confirmation page that shows the newly created issue with a status of "Open" and the details she entered. This page provides clear feedback that the issue has been successfully created, which will help Abi understand that she did the right thing and is making progress toward her goal. The page is well-organized and provides all the necessary information, including the issue title, description, and status, which aligns with Abi's comprehensive information processing style and preference for process-oriented learning.</t>
         </is>
       </c>
     </row>

--- a/outputs/ROME1.xlsx
+++ b/outputs/ROME1.xlsx
@@ -424,277 +424,244 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Looking at this GitLab repository page for FLOSSCoach, I don't see any immediately obvious link or documentation about merge request templates. The repository shows various folders and files including 'app', 'config', 'features', etc., and while there is a README.md that provides basic information about the project, features, and how to contribute, it doesn't appear to have direct information about merge request templates.
-Given the question about whether ABI would have thought of this as a step toward achieving the overall use case - ABI, being comprehensive and methodical in her approach, would likely NOT have considered this the right step. Here's why:
-1. ABI prefers to gather complete information before proceeding
-2. She likes to be thorough and certain about her actions
-3. She would want clear documentation or guidance about where to find information about merge request templates
-4. The current page doesn't show obvious navigation to merge request template information
-ABI would likely look for a more direct path or clearer documentation about merge request templates, possibly in the "Issues" or "Merge requests" sections of the left sidebar, rather than starting with the repository's root directory.
-A more ABI-aligned approach would be to first check the project's contribution guidelines or documentation specifically about creating issues and merge requests, rather than browsing through the repository structure.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Learning Style
+3. Computer Self-Efficacy
+Why: This aligns with ABI's characteristics because:
+- Her comprehensive information processing style means she would want to gather complete information before proceeding with filing an issue
+- Her process-oriented learning style means she would look for documentation or instructions first
+- Given her low computer self-efficacy, she would want to make sure she understands the correct process before taking action
+- The page shows a README.md file with clear sections about how to use the project and contribute, which would motivate ABI to look for information here first before proceeding with any action
+The presence of organized documentation and a "Contribute" section would make ABI feel this is a necessary first step to understand how to properly file an issue, rather than jumping directly into action without proper information.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Based on the README.md content shown in the image, there might be some challenges for Abi to confidently proceed with filing an issue for a merge request template:
-1. Limitations in the README:
-- The README does not directly address how to file issues
-- There's no clear section about contributing templates or merge requests
-- While there is a "Contribute" section, it only provides a brief reference to documentation for contributors
-2. Abi's Characteristics and Concerns:
-- Abi likes to gather comprehensive information before proceeding
-- She prefers step-by-step instructions
-- She's not confident about making mistakes
-- She wants to be thorough in understanding processes
-3. Missing Information:
-- No specific guidelines about issue templates
-- No direct path or instructions for creating issues
-- No examples of proper issue formatting
-Given these factors, Abi would likely:
-- Feel uncertain about proceeding without clear instructions
-- Want more detailed information about the correct process
-- Need explicit confirmation that she's following the right steps
-Recommendation:
-Abi should probably look for additional documentation, perhaps by:
-1. Checking the "contributions" link mentioned in the README
-2. Looking for an "Issues" tab in the repository navigation
-3. Seeking more detailed contribution guidelines
-The current page alone is not sufficient for Abi to confidently take this action.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Learning Style
+3. Computer Self-Efficacy
+Why: This aligns with ABI's characteristics because:
+- The README.md file is clearly visible and prominently displayed on the page
+- The content is well-structured with clear headings like "How to use?", "Features", and "Contribute" which matches ABI's comprehensive information processing style
+- Reading documentation aligns with ABI's process-oriented learning style
+- The README appears to contain basic project information in a non-technical format, which would make ABI feel comfortable reading it given her low computer self-efficacy
+- The page is not overwhelming with technical jargon and presents information in an organized manner, which would encourage ABI to read through it to gather information
+The clear structure and accessibility of the README makes it a comfortable starting point for ABI to gather the information she needs.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Based on the README.md shown in the image, it doesn't provide direct information about how to file an issue or create merge request templates. While the README contains general information about FLOSSCoach (including its purpose, build status, features, technologies used, and code style), it doesn't specifically address the process for filing issues or creating merge request templates.
-Abi would likely NOT know they're making progress toward their goal because:
-1. The README lacks specific guidance about issue creation or merge request templates
-2. While there is a "Contribute" section, it only points to general contribution documentation
-3. The navigation panel on the left does show an "Issues" section, but Abi would need to click there rather than continue reading the README
-For Abi's specific goal of filing an issue for a merge request template, they would need to:
-1. Look elsewhere in the repository interface
-2. Most likely click on the "Issues" section in the left navigation panel
-3. Or check the contribution documentation linked in the README
-Given Abi's characteristics (being methodical and preferring clear confirmation), this README page wouldn't provide enough specific information or confidence that they're on the right path to accomplish their goal.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. None of the Above (Lack of specific information about issue filing)
+Why: This doesn't align with ABI's needs because:
+- While the README provides general project information, it lacks specific instructions about how to file an issue
+- The "Contribute" section only has a brief line about contributions with a link, but no direct information about issue filing process
+- Given ABI's comprehensive information processing style, she would not feel confident that she has gathered all the necessary information about filing an issue
+- With her low computer self-efficacy, the lack of explicit instructions about issue filing would make her unsure if she's on the right track
+- The information provided is too general and doesn't specifically address her goal of filing an issue for a merge request template
+Even though ABI has read the README, she won't feel confident she's making progress because the specific information she needs about filing an issue is not clearly presented in the content. The lack of direct, step-by-step guidance about issue filing would leave her uncertain about her next steps.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Looking at the GitLab repository interface shown in the image, ABI should be able to identify the contribute.md file as it's clearly visible in the file listing. However, there are a few considerations about whether this would be immediately obvious as the right action for ABI:
-1. Characteristics that might make it challenging for ABI:
-- ABI tends to be comprehensive and needs confidence in her actions
-- She prefers gathering information before proceeding
-- She likes to understand the whole process before taking steps
-2. Positive aspects that would help ABI:
-- The contribute.md file name is clearly visible
-- It's a standard convention in open source projects to have contribution guidelines in this file
-- The file name is self-explanatory about its purpose
-3. Potential hesitation points:
-- ABI might wonder if there are other relevant files she should check first
-- She might question if this is the official way to learn about contributing
-- She might want to verify if there are other resources about filing issues
-4. The page seems good enough because:
-- The file structure is clear and organized
-- The contribute.md file is prominently displayed
-- The context suggests this is about project contribution
-Recommendation: While ABI could find and click on contribute.md, the interface could be more supportive by:
-- Having a more prominent "Contributing" section in the README
-- Adding a description next to contribute.md indicating its purpose
-- Including direct links to common contribution tasks like filing issues
-So while ABI can take this action, she might spend extra time verifying it's the correct path forward given her methodical approach to problem-solving.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Learning Style
+3. Computer Self-Efficacy
+Why: This aligns with ABI's characteristics because:
+- The contribute.md file is clearly visible in the file listing
+- The file name "contribute.md" is self-explanatory and suggests it contains contribution guidelines
+- The commit message for contribute.md shows "Update contribute.md" which indicates it contains updated information
+- Given ABI's process-oriented learning style, looking at a file specifically about contributing would align with her approach to gathering information
+- Since ABI didn't find specific information about filing issues in the README, her comprehensive information processing style would lead her to look for more detailed documentation
+- The file appears to be documentation rather than code, which would make ABI feel more comfortable given her low computer self-efficacy
+The clear labeling and purpose of the contribute.md file makes it a logical next step for ABI to find specific information about how to contribute, including filing issues.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Looking at the contribute.md page shown in the image, I can analyze if this action helps progress toward the goal:
-Yes, this is a helpful action because:
-1. The page explicitly shows "Contributing to FLOSScoach project" at the top and has a section about "File an Issue" which directly relates to the scenario's goal.
-2. Under "File an Issue" section, it provides specific guidance about:
-   - What to do when encountering problems
-   - How to create a "New Issue"
-   - How to provide details in issue reports
-3. The information is clearly laid out and provides step-by-step instructions for filing issues, which would help achieve the goal of creating a merge request template.
-However, there may be some uncertainty because:
-- The visible content doesn't specifically mention merge request templates
-- The user might need to scroll further to find template-specific information
-- They might need to check other linked resources mentioned in the document
-For confirming progress, the user can see they're in the right place because:
-- They're viewing the official contribution guidelines
-- The page directly addresses how to file issues
-- The content is specifically about contributing to the project
-This action provides a good foundation for understanding the project's contribution process, though they may need to read through the full document or follow additional links to get complete information about merge request templates specifically.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Learning Style
+3. Computer Self-Efficacy
+Why: This aligns with ABI's needs because:
+- The contribute.md page has a clear section titled "File an Issue" with specific instructions
+- The instructions are written in a step-by-step manner which matches ABI's process-oriented learning style
+- The page provides clear guidance: "To do so, go to the list of issues in our GitLab page, create a 'New Issue' and provide as much details as you can in your report"
+- The language is welcoming and encouraging ("Don't keep it to yourself. Please let us know!"), which helps with ABI's low computer self-efficacy
+- The information is presented in a comprehensive yet understandable way, matching ABI's information processing style
+- There's explicit confirmation that filing issues is valuable: "Reporting issues and providing helpful requests are one of the things that makes Open Source amazing"
+ABI would feel confident she's found the right information because the page provides clear, specific instructions about how to file an issue, and explains why it's important, making her feel she's making progress toward her goal.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Looking at the "Contributing to FLOSScoach project" documentation page shown in the image, this appears to be a detailed guide for contributing to the project, with sections covering everything from setup to making contributions. However, there isn't any obvious mention of merge request templates or filing issues for them.
-An Abi persona typically:
-1. Gathers information comprehensively before proceeding
-2. Prefers to understand processes thoroughly
-3. Is risk-averse and likes clear documentation
-In this case, while the documentation shows how to file issues under "File an Issue" section and discusses merging changes, it doesn't specifically address merge request templates. Abi would likely not have thought of this as an obvious step because:
-1. The documentation doesn't explicitly mention anything about merge request templates
-2. There's no clear indication that this is a standard practice or requirement
-3. Without explicit guidance, Abi would be hesitant to assume this is the right path forward
-So no, Abi likely would not have thought of filing an issue for a merge request template as a step toward achieving the use case, as it's not clearly documented in the contribution guidelines shown in the image.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Learning Style
+3. Motivations
+Why: This aligns with ABI's characteristics because:
+- The contribute.md page provides clear, step-by-step instructions about filing an issue which matches ABI's process-oriented learning style
+- The page explicitly states "To do so, go to the list of issues in our GitLab page, create a 'New Issue' and provide as much details as you can in your report" which gives ABI a clear process to follow
+- The page provides comprehensive information about why filing issues is important ("Reporting issues and providing helpful requests are one of the things that makes Open Source amazing")
+- ABI's motivation to accomplish her task would be supported by the clear instructions and encouraging language
+- The information is presented in a way that helps ABI understand this is the correct next step toward her goal of creating a merge request template
+Having found clear instructions and understanding why this step is important, ABI would recognize this as a necessary step toward achieving her overall goal.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Looking at the GitLab interface shown in the image, there does not appear to be a clearly visible "Issues" section on the main navigation menu on the left side. While there is a navigation menu with various options like "Repository," "Merge requests," "CI/CD," etc., finding the Issues section might not be immediately obvious to someone unfamiliar with GitLab's interface.
-For the goal of "Go to the list of issues," this page layout might present some challenges:
-1. The current view shows a contribute.md file with setup instructions
-2. While there is a left sidebar navigation menu, the "Issues" section isn't prominently visible in the screenshot
-3. The interface requires prior knowledge of GitLab's layout to know where to find the Issues section
-Recommendations to help users locate the Issues section:
-1. The interface could benefit from more prominent navigation elements
-2. A clearer hierarchical menu structure could make finding Issues easier
-3. Adding visual indicators or tooltips could help guide users to common functions like Issues
-Given these observations, this step might be challenging for users who are less familiar with GitLab's interface layout. The page itself doesn't provide obvious signposting to the Issues section, which could cause hesitation or confusion when trying to complete this action.</t>
+          <t>Answer: NO
+Facets:
+1. Computer Self-Efficacy
+2. Attitude Toward Risk
+3. Information Processing Style
+4. None of the Above (Lack of clear navigation guidance)
+Why: This doesn't align with ABI's needs because:
+- While the contribute.md mentions "go to the list of issues in our GitLab page," it doesn't provide clear instructions on how to navigate to this list
+- Given ABI's low computer self-efficacy, she would be uncertain about how to find the list of issues without explicit directions
+- ABI's risk-averse nature means she would be hesitant to explore or click around without clear guidance
+- There's no visual indication or direct link provided to the issues list on the current page
+- The page has many technical instructions and steps (like Git configurations, Ruby installation, etc.) which could overwhelm ABI and make it harder to focus on finding the issues list
+- ABI's comprehensive information processing style means she would want clear navigation instructions, which are not provided
+Even though the page mentions going to the issues list, the lack of specific navigation instructions would make ABI uncertain about how to actually get there, especially given her preference for clear, step-by-step guidance.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Yes, Abi will know they're making progress because this action successfully takes them to the issues list page, which is a necessary first step for filing a new issue. The page clearly shows:
-1. A "New Issue" button in the top right corner
-2. A list of existing issues
-3. Clear navigation indicating they're in the "Issues" section
-4. The current number of open issues (19)
-This interface provides several confirmatory elements that let Abi know they're in the right place to file an issue:
-1. The breadcrumb navigation at the top shows they're in the issues section
-2. The "Issues" tab is actively selected
-3. The prominent "New Issue" button indicates this is where new issues are created
-These elements provide clear feedback that Abi has taken the correct first step toward their goal of filing an issue for a merge request template. From here, they can proceed to actually creating the new issue by clicking the "New Issue" button.
-The interface is also comprehensive enough to help Abi gather any information they might need by being able to:
-- Search existing issues
-- View open vs. closed issues
-- Sort and filter results
-- See how other issues are structured</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Learning Style
+Why: This aligns with ABI's needs because:
+- The page clearly shows she's in the "Issues" section with a clear heading and navigation breadcrumb, confirming she's in the right place
+- The interface is straightforward with a clear "New Issue" button in blue, which matches the instruction from contribute.md about creating a "New Issue"
+- The page shows existing issues, which helps ABI confirm she's in the right place for issue creation
+- The layout is organized and not overwhelming, with clear issue titles and metadata, which supports ABI's comprehensive information processing style
+- The presence of other issues provides examples of how issues are structured, which helps with ABI's process-oriented learning style
+- The familiar interface elements (search bar, filters) would help boost ABI's computer self-efficacy as these are common elements she's likely familiar with
+ABI would feel confident she's made progress because:
+1. She's successfully found the issues list as instructed
+2. She can see where to create a new issue
+3. The page provides context through existing issues that confirms she's in the right place to accomplish her goal</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Yes, ABI will know what to do at this step for these reasons:
-1. The "New issue" button is clearly visible in the top-right corner of the screen
-2. It's a distinctive blue button that stands out from the rest of the interface
-3. The button's label "New issue" is clear and unambiguous about its purpose
-4. The button is positioned where users typically expect action buttons (top right)
-5. The current context (being on an issues list page) makes it logical that creating a new issue would involve clicking a "New issue" button
-Given ABI's characteristics:
-- She likes to be thorough and certain before taking actions
-- She prefers clear, step-by-step processes
-- She tends to be risk-averse
-This interface supports her needs because:
-- The button's purpose is explicit
-- There's no ambiguity about what clicking it will do
-- She can see she's in the right place (Issues section) to perform this task
-- The button is a standard UI element that she's likely familiar with from other systems
-So yes, the page design provides enough clarity and context for ABI to confidently take this action.</t>
+          <t>Answer: YES
+Facets:
+1. Computer Self-Efficacy
+2. Learning Style
+3. Attitude Toward Risk
+Why: This aligns with ABI's characteristics because:
+- The "New Issue" button is prominently displayed in blue and clearly labeled, making it easy to identify
+- The button's placement and appearance follows standard web conventions that ABI would be familiar with, supporting her computer self-efficacy
+- The instruction from contribute.md specifically mentioned creating a "New Issue," and this button exactly matches those instructions, supporting her process-oriented learning style
+- The button is a clear call-to-action that doesn't require any risky exploration or guesswork, which aligns with ABI's risk-averse nature
+- There's no ambiguity about which button to click - it's the only prominent action button on the page that matches the instructions she received
+ABI would feel confident clicking this button because:
+1. It exactly matches the instructions she received
+2. It's a standard interface element she would recognize
+3. There's no risk of clicking the wrong thing as the button is clearly labeled for its purpose</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Let me help analyze the current action and its feedback:
-After clicking 'new issue', Abi has indeed landed on the correct page, which is evidenced by:
-1. The page header shows "New Issue"
-2. A form is displayed with fields for creating a new issue:
-   - Title field (marked as required)
-   - Type dropdown (set to "Issue")
-   - Description text editor
-   - Options for confidentiality
-   - Create issue and Cancel buttons
-This provides good feedback because:
-1. It clearly confirms Abi is in the right place to file an issue
-2. The form structure guides what information is needed
-3. The required fields are marked, helping Abi know what must be completed
-4. The text editor includes formatting tools, indicating where to add detailed information
-5. The "Create issue" button shows the clear next step
-So yes, Abi will know they did the right thing and are making progress because:
-1. The page transition provides immediate visual feedback
-2. The interface clearly shows they're in an issue creation workflow
-3. The form structure provides a clear path forward for the next steps
-The page contains all the necessary elements for creating a merge request template issue, allowing Abi to proceed with confidence toward their goal.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Learning Style
+3. Computer Self-Efficacy
+Why: This aligns with ABI's needs because:
+- The page clearly shows "New Issue" in the breadcrumb navigation and as the main heading, confirming she's in the right place
+- The form has a clear, familiar structure with labeled fields (Title, Type, Description) that ABI would recognize from other forms
+- The required fields are clearly marked (Title shows "required"), helping ABI understand what must be filled out
+- The text editor interface is similar to common word processors, with familiar formatting buttons (bold, italic, etc.), making it less intimidating for ABI's computer self-efficacy
+- The form provides a preview option, which aligns with ABI's process-oriented learning style as she can verify her work before submitting
+- The page is focused solely on issue creation without distracting or overwhelming technical elements
+ABI would feel confident she's making progress because:
+1. The interface matches her expectations for creating a new issue
+2. The form provides clear guidance on what information is needed
+3. The familiar editing tools and preview option allow her to carefully compose her issue
+4. The "Create issue" button clearly indicates the final step to complete her task</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Based on the image shown, I can help analyze whether ABI would know what to do at this step:
-From ABI's persona traits:
-1. ABI prefers comprehensive information and likes to understand things completely
-2. She is risk-averse and wants to be confident in her actions
-3. She learns through process-oriented approaches
-Looking at the page:
-Positives for ABI:
-- The form has clear labels for required fields (Title shows "required")
-- There's a straightforward Type dropdown with "Issue" selected
-- The description field has a text editor with visible formatting options
-- There's a clear "Create issue" button
-- The checkbox for confidentiality has explicit explanation
-Potential challenges for ABI:
-1. There's no guidance about what makes a good issue title
-2. No template or example of how to structure the description
-3. No explanation of what an "Issue" type means vs other options
-4. No indication of what happens after clicking "Create issue"
-Overall Assessment:
-ABI might hesitate because:
-- She may not be confident about what information to include
-- She might worry about making a mistake in the format
-- There's no clear indication of the process steps before/after this form
-To make it more ABI-friendly, the page could benefit from:
-- Adding placeholder text with example titles
-- Including a template in the description field
-- Providing "Learn more" links about issues
-- Adding a preview of what the issue will look like
-While ABI could complete this action, she might not feel fully confident about doing it correctly without more guidance.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Learning Style
+4. None of the Above (Lack of guidance for content)
+Why: This doesn't align with ABI's needs because:
+- While the form interface is clear, there's no guidance about what content should be included in an issue requesting a merge request template
+- ABI's comprehensive information processing style means she would want to know what information is necessary to include in the title and description
+- Given her low computer self-efficacy, she would be uncertain if she's providing the right type and amount of information
+- Her process-oriented learning style would prefer clear instructions or examples of how to structure the issue content
+- There's no template or example showing how to format the request for a merge request template
+- The Type dropdown doesn't provide clear guidance on which type would be appropriate for this kind of request
+- The formatting toolbar presents many options without guidance on which ones are appropriate or necessary
+Even though the form mechanics are clear, ABI would feel uncertain about:
+1. What to write in the title
+2. What information to include in the description
+3. Which type to select
+4. Whether her request would be properly formatted and contain all necessary information</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Looking at this GitLab issue creation page, I can help analyze whether the user would know they're making progress:
-Current View:
-- It's a blank issue form titled "For testing purpose"
-- The issue is marked as "Open"
-- It has sections for:
-  - Child items (currently empty)
-  - Linked items (currently empty)
-  - Activity/comments section
-  - Various metadata fields on the right (Assignees, Labels, Milestone, etc.)
-Regarding the question:
-Yes, after submitting the issue, the user would know they're making progress because:
-1. The system provides clear feedback:
-- The issue gets a unique number (#163 in this case)
-- The status shows as "Open"
-- The issue becomes visible in the issues list
-- GitHub shows a confirmation message when the issue is created
-2. Tracking progress:
-- The user can see their issue listed among other project issues
-- They can track it through the project's issue board
-- The issue remains accessible for future reference and updates
-3. Verification options:
-- They can immediately verify the issue details
-- They can confirm if all required information is included
-- They can check if it's properly linked to the project
-So while the current view shows an empty form, once submitted, the user would receive clear confirmation that their action was successful and that they're progressing toward their goal of creating a merge request template issue.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Learning Style
+4. None of the Above (Lack of confirmation)
+Why: This doesn't align with ABI's needs because:
+- While the page shows the created issue, there's no clear confirmation or feedback that the issue for a merge request template was created correctly
+- ABI's comprehensive information processing style would want clear indication that her request was properly formatted and contains all necessary information
+- Given her low computer self-efficacy, she would be uncertain if the issue will effectively communicate her request for a merge request template
+- The page shows many additional options (Child items, Linked items, Activity) without guidance on whether she needs to do anything with these
+- There's no indication of next steps or what to expect after creating the issue
+- The status showing "Open" doesn't provide enough context about whether her request will be addressed
+ABI would feel uncertain because:
+1. There's no confirmation that she formatted the request correctly
+2. The interface presents many additional options that might make her wonder if she missed something important
+3. There's no clear indication of what happens next with her request
+4. The page doesn't provide feedback about whether her issue will effectively lead to getting a merge request template</t>
         </is>
       </c>
     </row>

--- a/outputs/ROME1.xlsx
+++ b/outputs/ROME1.xlsx
@@ -429,12 +429,12 @@
 1. Information Processing Style
 2. Learning Style
 3. Computer Self-Efficacy
-Why: This aligns with ABI's characteristics because:
-- Her comprehensive information processing style means she would want to gather complete information before proceeding with filing an issue
-- Her process-oriented learning style means she would look for documentation or instructions first
-- Given her low computer self-efficacy, she would want to make sure she understands the correct process before taking action
-- The page shows a README.md file with clear sections about how to use the project and contribute, which would motivate ABI to look for information here first before proceeding with any action
-The presence of organized documentation and a "Contribute" section would make ABI feel this is a necessary first step to understand how to properly file an issue, rather than jumping directly into action without proper information.</t>
+Why: ABI would consider this a necessary first step because:
+- Given her comprehensive information processing style, she would want to gather complete information before taking action
+- Her process-oriented learning style means she would look for proper documentation or guidelines first
+- Due to her low computer self-efficacy, she would want to ensure she understands the correct process before proceeding with filing an issue
+- The page shows a README.md file with clear sections about how to use the project and contribute, which aligns with ABI's need for clear documentation and process-oriented approach
+The presence of organized documentation and a "Contribute" section would motivate ABI to look for information first rather than jumping directly into filing an issue, making this a logical first step for her.</t>
         </is>
       </c>
     </row>
@@ -446,13 +446,14 @@
 1. Information Processing Style
 2. Learning Style
 3. Computer Self-Efficacy
-Why: This aligns with ABI's characteristics because:
+Why: ABI would be comfortable taking this action because:
 - The README.md file is clearly visible and prominently displayed on the page
-- The content is well-structured with clear headings like "How to use?", "Features", and "Contribute" which matches ABI's comprehensive information processing style
-- Reading documentation aligns with ABI's process-oriented learning style
-- The README appears to contain basic project information in a non-technical format, which would make ABI feel comfortable reading it given her low computer self-efficacy
-- The page is not overwhelming with technical jargon and presents information in an organized manner, which would encourage ABI to read through it to gather information
-The clear structure and accessibility of the README makes it a comfortable starting point for ABI to gather the information she needs.</t>
+- The file follows a standard documentation format with clear headings and sections, which aligns with ABI's comprehensive information processing style
+- Reading documentation is a safe, process-oriented approach that matches ABI's learning style
+- The content appears to be well-structured with sections like "How to use?", "Features", and "Contribute" which would make ABI feel confident about gathering information
+- There's no technical risk involved in reading, which suits ABI's risk-averse nature
+- The page is not overwhelmed with technical jargon and presents information in an organized manner, making it accessible for someone with low computer self-efficacy
+The clear structure and accessibility of the README file makes it a comfortable starting point for ABI to gather the information she needs.</t>
         </is>
       </c>
     </row>
@@ -464,13 +465,14 @@
 1. Information Processing Style
 2. Computer Self-Efficacy
 3. None of the Above (Lack of specific information about issue filing)
-Why: This doesn't align with ABI's needs because:
-- While the README provides general project information, it lacks specific instructions about how to file an issue
-- The "Contribute" section only has a brief line about contributions with a link, but no direct information about issue filing process
-- Given ABI's comprehensive information processing style, she would not feel confident that she has gathered all the necessary information about filing an issue
+Why: ABI would not be confident she's making progress because:
+- While the README contains general project information, it lacks specific instructions about how to file an issue or create merge request templates
+- The "Contribute" section only has a brief line about contributions with a link, but no detailed process about issue filing
+- Given ABI's comprehensive information processing style, she would find this information incomplete as it doesn't provide the step-by-step process she needs
 - With her low computer self-efficacy, the lack of explicit instructions about issue filing would make her unsure if she's on the right track
-- The information provided is too general and doesn't specifically address her goal of filing an issue for a merge request template
-Even though ABI has read the README, she won't feel confident she's making progress because the specific information she needs about filing an issue is not clearly presented in the content. The lack of direct, step-by-step guidance about issue filing would leave her uncertain about her next steps.</t>
+- The content focuses on general project information (Features, Technologies, Code style) rather than the specific task she wants to accomplish
+- There's no clear indication or confirmation that reading this README was the right step toward filing an issue
+The page doesn't provide the comprehensive, task-specific information ABI needs to feel confident she's making progress toward her goal of filing an issue for a merge request template.</t>
         </is>
       </c>
     </row>
@@ -482,14 +484,14 @@
 1. Information Processing Style
 2. Learning Style
 3. Computer Self-Efficacy
-Why: This aligns with ABI's characteristics because:
-- The contribute.md file is clearly visible in the file listing
-- The file name "contribute.md" is self-explanatory and suggests it contains contribution guidelines
-- The commit message for contribute.md shows "Update contribute.md" which indicates it contains updated information
-- Given ABI's process-oriented learning style, looking at a file specifically about contributing would align with her approach to gathering information
-- Since ABI didn't find specific information about filing issues in the README, her comprehensive information processing style would lead her to look for more detailed documentation
-- The file appears to be documentation rather than code, which would make ABI feel more comfortable given her low computer self-efficacy
-The clear labeling and purpose of the contribute.md file makes it a logical next step for ABI to find specific information about how to contribute, including filing issues.</t>
+Why: ABI would feel comfortable taking this action because:
+- There is a visible "contribute.md" file in the repository listing which suggests documentation about contribution processes
+- The README.md mentions "Want to contribute and not sure how to start? Here's our documentation for contributions" with a link, providing clear context about what the contribute.md file contains
+- This aligns with ABI's process-oriented learning style as she expects to find formal documentation
+- The file name "contribute.md" is a standard documentation format, and seeing it in the file listing would give ABI confidence that it contains the information she needs
+- Given her comprehensive information processing style, following documentation links is a natural next step after reading the main README
+- The presence of explicit contribution documentation reduces the risk of making mistakes, which aligns with ABI's risk-averse nature
+The clear labeling and context about the contribute.md file makes it a logical and safe next step for ABI to find specific information about how to contribute (including filing issues).</t>
         </is>
       </c>
     </row>
@@ -501,14 +503,15 @@
 1. Information Processing Style
 2. Learning Style
 3. Computer Self-Efficacy
-Why: This aligns with ABI's needs because:
-- The contribute.md page has a clear section titled "File an Issue" with specific instructions
-- The instructions are written in a step-by-step manner which matches ABI's process-oriented learning style
-- The page provides clear guidance: "To do so, go to the list of issues in our GitLab page, create a 'New Issue' and provide as much details as you can in your report"
-- The language is welcoming and encouraging ("Don't keep it to yourself. Please let us know!"), which helps with ABI's low computer self-efficacy
-- The information is presented in a comprehensive yet understandable way, matching ABI's information processing style
-- There's explicit confirmation that filing issues is valuable: "Reporting issues and providing helpful requests are one of the things that makes Open Source amazing"
-ABI would feel confident she's found the right information because the page provides clear, specific instructions about how to file an issue, and explains why it's important, making her feel she's making progress toward her goal.</t>
+Why: ABI would feel confident she's making progress because:
+- The page has a clear "File an Issue" section that directly addresses her goal
+- The document provides specific, step-by-step instructions about how to file an issue: "To do so, go to the list of issues in our GitLab page, create a 'New Issue' and provide as much details as you can in your report"
+- The content is presented in a process-oriented way that matches ABI's learning style
+- There's reassuring text like "Don't keep it to yourself. Please let us know!" which would make ABI feel more confident about proceeding
+- The information is comprehensive yet not overwhelming, satisfying ABI's information processing style
+- The instructions are written in plain language without complex technical jargon, which helps with her low computer self-efficacy
+- The page clearly explains what information should be included in the issue ("provide as much details as you can")
+The clear, step-by-step instructions and encouraging tone would help ABI feel confident she's found the right information and knows how to proceed with filing an issue.</t>
         </is>
       </c>
     </row>
@@ -517,16 +520,17 @@
         <is>
           <t>Answer: YES
 Facets:
-1. Information Processing Style
-2. Learning Style
-3. Motivations
-Why: This aligns with ABI's characteristics because:
-- The contribute.md page provides clear, step-by-step instructions about filing an issue which matches ABI's process-oriented learning style
-- The page explicitly states "To do so, go to the list of issues in our GitLab page, create a 'New Issue' and provide as much details as you can in your report" which gives ABI a clear process to follow
-- The page provides comprehensive information about why filing issues is important ("Reporting issues and providing helpful requests are one of the things that makes Open Source amazing")
-- ABI's motivation to accomplish her task would be supported by the clear instructions and encouraging language
-- The information is presented in a way that helps ABI understand this is the correct next step toward her goal of creating a merge request template
-Having found clear instructions and understanding why this step is important, ABI would recognize this as a necessary step toward achieving her overall goal.</t>
+1. Motivations
+2. Information Processing Style
+3. Computer Self-Efficacy
+Why: ABI would consider this a necessary step because:
+- The page explicitly states "File an Issue" as a way to contribute and provides clear instructions about how to do it
+- The content directly addresses her task with encouraging language like "Don't keep it to yourself. Please let us know!"
+- The instructions are presented in a step-by-step manner ("go to the list of issues in our GitLab page, create a 'New Issue'...") which aligns with her comprehensive information processing style
+- The page provides reassurance about filing issues being helpful ("Reporting issues and providing feature requests are one of the things that makes Open Source amazing"), which helps with her low computer self-efficacy
+- The instructions are clear about what to do and what information to include, making it feel like a manageable task
+- This aligns with her motivation to accomplish her task through proper channels and documented processes
+The clear instructions and encouraging tone would help ABI recognize this as the correct next step toward her goal of creating a merge request template.</t>
         </is>
       </c>
     </row>
@@ -537,16 +541,16 @@
 Facets:
 1. Computer Self-Efficacy
 2. Attitude Toward Risk
-3. Information Processing Style
-4. None of the Above (Lack of clear navigation guidance)
-Why: This doesn't align with ABI's needs because:
+3. None of the Above (Lack of clear navigation guidance)
+Why: ABI would struggle with this action because:
 - While the contribute.md mentions "go to the list of issues in our GitLab page," it doesn't provide clear instructions on how to navigate to this list
-- Given ABI's low computer self-efficacy, she would be uncertain about how to find the list of issues without explicit directions
-- ABI's risk-averse nature means she would be hesitant to explore or click around without clear guidance
-- There's no visual indication or direct link provided to the issues list on the current page
-- The page has many technical instructions and steps (like Git configurations, Ruby installation, etc.) which could overwhelm ABI and make it harder to focus on finding the issues list
-- ABI's comprehensive information processing style means she would want clear navigation instructions, which are not provided
-Even though the page mentions going to the issues list, the lack of specific navigation instructions would make ABI uncertain about how to actually get there, especially given her preference for clear, step-by-step guidance.</t>
+- There's no direct link or clear indication of where the "list of issues" is located in the interface
+- Given ABI's low computer self-efficacy, she would not feel confident about finding the correct location without explicit guidance
+- ABI is risk-averse and would be hesitant to click around and explore without clear direction
+- The page has many technical sections and commands which might overwhelm ABI and make her unsure about where to look
+- There's no visual guidance (like screenshots or arrows) showing where the issues list can be found
+- The instruction assumes prior knowledge of GitLab's interface, which doesn't align with ABI's need for comprehensive guidance
+Without explicit navigation instructions or a direct link to the issues list, ABI would feel uncertain about how to proceed and might worry about getting lost in the interface.</t>
         </is>
       </c>
     </row>
@@ -558,17 +562,15 @@
 1. Information Processing Style
 2. Computer Self-Efficacy
 3. Learning Style
-Why: This aligns with ABI's needs because:
-- The page clearly shows she's in the "Issues" section with a clear heading and navigation breadcrumb, confirming she's in the right place
-- The interface is straightforward with a clear "New Issue" button in blue, which matches the instruction from contribute.md about creating a "New Issue"
-- The page shows existing issues, which helps ABI confirm she's in the right place for issue creation
-- The layout is organized and not overwhelming, with clear issue titles and metadata, which supports ABI's comprehensive information processing style
-- The presence of other issues provides examples of how issues are structured, which helps with ABI's process-oriented learning style
-- The familiar interface elements (search bar, filters) would help boost ABI's computer self-efficacy as these are common elements she's likely familiar with
-ABI would feel confident she's made progress because:
-1. She's successfully found the issues list as instructed
-2. She can see where to create a new issue
-3. The page provides context through existing issues that confirms she's in the right place to accomplish her goal</t>
+Why: ABI would feel confident she's made progress because:
+- The page clearly shows she's in the "Issues" section, with clear tabs showing "Open", "Closed", and "All" issues
+- There's a prominent "New Issue" button in blue, which aligns with the next step mentioned in the contribute.md instructions
+- The page layout is organized and shows a list of existing issues, helping her understand she's in the right place
+- The interface matches what was described in the contribute.md ("list of issues")
+- The page provides a familiar structure with a search bar and filtering options, which helps with her comprehensive information processing style
+- The presence of other issues gives her examples of what issues look like, which helps with her learning style
+- The straightforward interface without complex technical elements helps with her low computer self-efficacy
+The clear indication that she's in the issues section and the visible "New Issue" button would make ABI confident she's on the right track and ready for the next step of creating a new issue.</t>
         </is>
       </c>
     </row>
@@ -577,19 +579,20 @@
         <is>
           <t>Answer: YES
 Facets:
-1. Computer Self-Efficacy
-2. Learning Style
-3. Attitude Toward Risk
-Why: This aligns with ABI's characteristics because:
-- The "New Issue" button is prominently displayed in blue and clearly labeled, making it easy to identify
-- The button's placement and appearance follows standard web conventions that ABI would be familiar with, supporting her computer self-efficacy
-- The instruction from contribute.md specifically mentioned creating a "New Issue," and this button exactly matches those instructions, supporting her process-oriented learning style
-- The button is a clear call-to-action that doesn't require any risky exploration or guesswork, which aligns with ABI's risk-averse nature
-- There's no ambiguity about which button to click - it's the only prominent action button on the page that matches the instructions she received
-ABI would feel confident clicking this button because:
-1. It exactly matches the instructions she received
-2. It's a standard interface element she would recognize
-3. There's no risk of clicking the wrong thing as the button is clearly labeled for its purpose</t>
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Learning Style
+4. Attitude Toward Risk
+Why: ABI would feel confident to take this action because:
+- There's a clear, prominent blue "New Issue" button that stands out on the page
+- This action directly matches the instructions from contribute.md ("create a 'New Issue'")
+- The button's placement and visibility make it easy to find without having to explore or guess
+- The button uses standard, non-technical language that ABI would understand
+- The presence of existing issues provides context and confirms she's in the right place
+- This is a low-risk action that aligns with her risk-averse nature
+- The interface is clean and not overwhelming, which helps with her low computer self-efficacy
+- The button's purpose is clear and unambiguous, matching her need for process-oriented actions
+The clear labeling and prominent placement of the "New Issue" button, combined with the previous instructions, would make ABI confident this is the correct next step.</t>
         </is>
       </c>
     </row>
@@ -599,20 +602,19 @@
           <t>Answer: YES
 Facets:
 1. Information Processing Style
-2. Learning Style
-3. Computer Self-Efficacy
-Why: This aligns with ABI's needs because:
-- The page clearly shows "New Issue" in the breadcrumb navigation and as the main heading, confirming she's in the right place
-- The form has a clear, familiar structure with labeled fields (Title, Type, Description) that ABI would recognize from other forms
-- The required fields are clearly marked (Title shows "required"), helping ABI understand what must be filled out
-- The text editor interface is similar to common word processors, with familiar formatting buttons (bold, italic, etc.), making it less intimidating for ABI's computer self-efficacy
-- The form provides a preview option, which aligns with ABI's process-oriented learning style as she can verify her work before submitting
-- The page is focused solely on issue creation without distracting or overwhelming technical elements
-ABI would feel confident she's making progress because:
-1. The interface matches her expectations for creating a new issue
-2. The form provides clear guidance on what information is needed
-3. The familiar editing tools and preview option allow her to carefully compose her issue
-4. The "Create issue" button clearly indicates the final step to complete her task</t>
+2. Computer Self-Efficacy
+3. Learning Style
+4. Attitude Toward Risk
+Why: ABI would feel confident she's on the right track because:
+- The page clearly shows "New Issue" in the header, confirming she's reached the correct form
+- The form has a clear, structured layout with labeled fields (Title, Type, Description) that guides her through the process
+- Required fields are marked (Title shows "required"), helping her understand what must be filled out
+- The description field has a familiar text editor interface with standard formatting options
+- The form provides a "Preview" option, which allows her to review her work before submitting
+- There's a clear "Create issue" button and a "Cancel" option, giving her safe choices
+- The interface is clean and not overwhelming with technical jargon
+- The form matches what was described in the contribute.md about providing details in the issue
+The straightforward form layout, clear labeling, and familiar text editing interface would make ABI confident she can proceed with creating her issue about the merge request template. The presence of preview and cancel options also provides a safety net that aligns with her risk-averse nature.</t>
         </is>
       </c>
     </row>
@@ -625,19 +627,16 @@
 2. Computer Self-Efficacy
 3. Learning Style
 4. None of the Above (Lack of guidance for content)
-Why: This doesn't align with ABI's needs because:
-- While the form interface is clear, there's no guidance about what content should be included in an issue requesting a merge request template
-- ABI's comprehensive information processing style means she would want to know what information is necessary to include in the title and description
-- Given her low computer self-efficacy, she would be uncertain if she's providing the right type and amount of information
-- Her process-oriented learning style would prefer clear instructions or examples of how to structure the issue content
-- There's no template or example showing how to format the request for a merge request template
-- The Type dropdown doesn't provide clear guidance on which type would be appropriate for this kind of request
-- The formatting toolbar presents many options without guidance on which ones are appropriate or necessary
-Even though the form mechanics are clear, ABI would feel uncertain about:
-1. What to write in the title
-2. What information to include in the description
-3. Which type to select
-4. Whether her request would be properly formatted and contain all necessary information</t>
+Why: ABI would struggle with this action because:
+- While the form interface is clear, there's no guidance about what specific information should be included in an issue about merge request templates
+- The description field is completely blank with only a generic placeholder "Write a description or drag your files here"
+- There's no template or example showing how to structure the request for a merge request template
+- Given ABI's comprehensive information processing style, she would want to know what details are necessary for this specific type of issue
+- Her low computer self-efficacy would make her uncertain about whether she's providing the right information
+- The formatting toolbar has many options but no indication of which ones are appropriate or necessary for this type of issue
+- There's no guidance about what makes a good title for this type of request
+- The Type dropdown showing "Issue" doesn't provide information about whether this is the correct type for a merge request template request
+Without specific guidance about what information to include for requesting a merge request template, ABI would feel uncertain about how to properly fill out the form to achieve her goal.</t>
         </is>
       </c>
     </row>
@@ -650,18 +649,16 @@
 2. Computer Self-Efficacy
 3. Learning Style
 4. None of the Above (Lack of confirmation)
-Why: This doesn't align with ABI's needs because:
-- While the page shows the created issue, there's no clear confirmation or feedback that the issue for a merge request template was created correctly
-- ABI's comprehensive information processing style would want clear indication that her request was properly formatted and contains all necessary information
-- Given her low computer self-efficacy, she would be uncertain if the issue will effectively communicate her request for a merge request template
-- The page shows many additional options (Child items, Linked items, Activity) without guidance on whether she needs to do anything with these
-- There's no indication of next steps or what to expect after creating the issue
-- The status showing "Open" doesn't provide enough context about whether her request will be addressed
-ABI would feel uncertain because:
-1. There's no confirmation that she formatted the request correctly
-2. The interface presents many additional options that might make her wonder if she missed something important
-3. There's no clear indication of what happens next with her request
-4. The page doesn't provide feedback about whether her issue will effectively lead to getting a merge request template</t>
+Why: ABI would not feel confident about her progress because:
+- While the page shows the issue was created, there's no clear confirmation that this was the right way to request a merge request template
+- The status shows "Open" but doesn't provide any feedback about what happens next or if additional steps are needed
+- The interface shows many new options (Child items, Linked items, Activity) without explanation of whether these are relevant to her merge request template request
+- Given her comprehensive information processing style, she would be uncertain if she needs to do anything with these additional features
+- Her low computer self-efficacy would make her question if she's completed the task correctly
+- There's no indication of whether someone will review her request or what the next steps are
+- The page shows various new elements like "Add a to do", "Labels", "Milestone" which might make her wonder if she should be using these
+- The presence of a comment section might make her unsure if she needs to add more information
+Without clear confirmation that her merge request template request was properly submitted and information about next steps, ABI would be uncertain whether she successfully completed her task.</t>
         </is>
       </c>
     </row>
